--- a/ObiletTestAutomationScenario.xlsx
+++ b/ObiletTestAutomationScenario.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17845B22-47FC-4436-B39E-171997E68812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F26114-AE43-49A9-B73E-190C7FC4F216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Obilet_LoginScenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Obilet_Login_Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Obilet_Bus_Scenarios" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,9 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Youtube - Başarılı Login Senaryosu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+  <si>
+    <t>OBİLET</t>
+  </si>
+  <si>
+    <t>Obilet - Başarılı Login Senaryosu</t>
   </si>
   <si>
     <t>Senaryo</t>
@@ -58,13 +62,13 @@
 ( https://www.obilet.com/ )</t>
   </si>
   <si>
-    <t>Uygulamanın başarılı bir şekilde açıldığı doğrulanır.</t>
+    <t>Uygulamanın başarılı bir şekilde açılır.</t>
   </si>
   <si>
     <t>Sağ üstteki "Üye Girişi" butonuna tıklanır.</t>
   </si>
   <si>
-    <t>"Üye Girişi" ekranının açıldığı doğrulanır.</t>
+    <t>"Üye Girişi" ekranının açılır.</t>
   </si>
   <si>
     <t>"E-posta Adresi" alanına ilgili test verisi girilir.</t>
@@ -83,13 +87,97 @@
   </si>
   <si>
     <t>Üye girişinin yapıldığı doğrulanır.</t>
+  </si>
+  <si>
+    <t>Obilet - Hatalı eposta ile giriş</t>
+  </si>
+  <si>
+    <t>ta332059@gmail.com</t>
+  </si>
+  <si>
+    <t>"Kullanıcı adı ve şifrenizi kontrol ederek tekrar deneyiniz." textinin görüntülendiği doğrulanır.</t>
+  </si>
+  <si>
+    <t>Obilet - Otobus bileti satin al</t>
+  </si>
+  <si>
+    <t>Header kısmındaki "Otobüs" butonuna tıklanır.</t>
+  </si>
+  <si>
+    <t>"Otobüs" ekranının açılır.</t>
+  </si>
+  <si>
+    <t>"Kalkış Noktası" alanına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>Manisa</t>
+  </si>
+  <si>
+    <t>"Varış Noktası" alanına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>İstanbul Avrupa</t>
+  </si>
+  <si>
+    <t>"Yolculuk Tarihi" textine tıklanır ve aktif günlerden biri rastgele seçilir.</t>
+  </si>
+  <si>
+    <t>"Otobüs Bileti Bul" butonuna tıklanır.</t>
+  </si>
+  <si>
+    <t>Otobüs Seferleri ekranın açılır.</t>
+  </si>
+  <si>
+    <t>Otobüs Seferleri ekranından rastgele bir otobüs seferi seçilir.</t>
+  </si>
+  <si>
+    <t>Seçilen seferde rastgele boş bir koltuğa tıklanır.</t>
+  </si>
+  <si>
+    <t>Seçilen koltuk için erkek seçimi yapılır.</t>
+  </si>
+  <si>
+    <t>"Onayla ve Devam Et" butonuna tıklanır.</t>
+  </si>
+  <si>
+    <t>Ödeme ekranı açılır.</t>
+  </si>
+  <si>
+    <t>Ödeme ekranının açıldığı doğrulanır</t>
+  </si>
+  <si>
+    <t>"E-Mail" textboxına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>"Cep Telefonu" textboxına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>"Adı Soyadı" textboxına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>Test Account</t>
+  </si>
+  <si>
+    <t>"TC Kimlik No" textboxına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>"Kart Numarası" textboxına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>"Son Kullanma Tarihi" textboxına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>"CVC2" textboxına ilgili test verisi girilir.</t>
+  </si>
+  <si>
+    <t>Güvenli Ödeme Yap butonuna tıklanır.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +210,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF203764"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF8CBAD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -212,12 +320,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,12 +364,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,6 +375,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,123 +729,593 @@
     <col min="4" max="4" width="95.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="88.140625" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39" customHeight="1">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1">
-      <c r="A5" s="11">
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30.75">
+      <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8">
+      <c r="E13" s="3"/>
+      <c r="F13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8">
+      <c r="E14" s="3"/>
+      <c r="F14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8">
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8">
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{B58F4F13-FD01-4D79-B331-9A5E63290F55}"/>
+    <hyperlink ref="E15" r:id="rId2" xr:uid="{C13CCE90-36D5-43D1-944E-B992C7B80A07}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406AF48-5DDA-4334-938B-C60ABA4C166D}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="96.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.75">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5555555555</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3">
+        <v>25252525234</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2525252525252520</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <v>650</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:A23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{59A2248A-2F70-413A-A791-49AA50480407}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
